--- a/KrekelEtAl2004-Wilmott-BasketOption.xlsx
+++ b/KrekelEtAl2004-Wilmott-BasketOption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\PyfengForPapers\ipynb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PycharmProjects\PyFENG-MP4M-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91700B55-2216-40B1-840D-29317A4B5C32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7234AD-0FD3-4F23-A7CE-F704AE3225F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1620" windowWidth="16476" windowHeight="12852" activeTab="1" xr2:uid="{40D57F48-2E8F-4F83-A17E-476FA0AEE963}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24108" windowHeight="13308" xr2:uid="{40D57F48-2E8F-4F83-A17E-476FA0AEE963}"/>
   </bookViews>
   <sheets>
     <sheet name="Param" sheetId="6" r:id="rId1"/>
@@ -19,27 +19,19 @@
     <sheet name="3" sheetId="4" r:id="rId4"/>
     <sheet name="4" sheetId="2" r:id="rId5"/>
     <sheet name="5" sheetId="5" r:id="rId6"/>
+    <sheet name="6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>Beisser</t>
   </si>
@@ -120,6 +112,54 @@
   </si>
   <si>
     <t>Exact</t>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sigma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monte Carlo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G&amp;E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table1 in Milevsky and Posner (1998)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -127,15 +167,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -159,15 +206,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -183,7 +233,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -479,18 +529,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5578609F-9AB3-4BE5-BEEC-B7923F560A91}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -519,7 +569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -548,7 +598,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -577,7 +627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -606,7 +656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -635,7 +685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -664,8 +714,18 @@
         <v>23</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -673,11 +733,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F36251-B3BA-4376-B7E7-8653475F733C}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
@@ -690,7 +750,7 @@
     <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -722,7 +782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -754,7 +814,7 @@
         <v>21.6921</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.3</v>
       </c>
@@ -786,7 +846,7 @@
         <v>25.029299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -818,7 +878,7 @@
         <v>28.007400000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.7</v>
       </c>
@@ -850,7 +910,7 @@
         <v>30.742699999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.8</v>
       </c>
@@ -882,7 +942,7 @@
         <v>32.041200000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.95</v>
       </c>
@@ -914,10 +974,11 @@
         <v>33.918700000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -930,7 +991,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
@@ -942,7 +1003,7 @@
     <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -974,7 +1035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>50</v>
       </c>
@@ -1006,7 +1067,7 @@
         <v>54.310200000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60</v>
       </c>
@@ -1038,7 +1099,7 @@
         <v>47.481099999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>70</v>
       </c>
@@ -1070,7 +1131,7 @@
         <v>41.522500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>80</v>
       </c>
@@ -1102,7 +1163,7 @@
         <v>36.351799999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>90</v>
       </c>
@@ -1134,7 +1195,7 @@
         <v>31.876799999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -1166,7 +1227,7 @@
         <v>28.007400000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>110</v>
       </c>
@@ -1198,7 +1259,7 @@
         <v>24.660499999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>120</v>
       </c>
@@ -1230,7 +1291,7 @@
         <v>21.762599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>130</v>
       </c>
@@ -1262,7 +1323,7 @@
         <v>19.249300000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>140</v>
       </c>
@@ -1294,7 +1355,7 @@
         <v>17.0655</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>150</v>
       </c>
@@ -1327,6 +1388,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1339,12 +1401,12 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1373,7 +1435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>50</v>
       </c>
@@ -1402,7 +1464,7 @@
         <v>1.41E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>60</v>
       </c>
@@ -1431,7 +1493,7 @@
         <v>1.8499999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>70</v>
       </c>
@@ -1460,7 +1522,7 @@
         <v>2.2700000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>80</v>
       </c>
@@ -1489,7 +1551,7 @@
         <v>2.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>90</v>
       </c>
@@ -1518,7 +1580,7 @@
         <v>3.09E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -1547,7 +1609,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>110</v>
       </c>
@@ -1576,7 +1638,7 @@
         <v>3.9100000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>120</v>
       </c>
@@ -1605,7 +1667,7 @@
         <v>4.3299999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>130</v>
       </c>
@@ -1634,7 +1696,7 @@
         <v>4.7399999999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>140</v>
       </c>
@@ -1663,7 +1725,7 @@
         <v>5.16E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>150</v>
       </c>
@@ -1693,6 +1755,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1705,7 +1768,7 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
@@ -1717,7 +1780,7 @@
     <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1749,7 +1812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.05</v>
       </c>
@@ -1781,7 +1844,7 @@
         <v>3.5259</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.1</v>
       </c>
@@ -1813,7 +1876,7 @@
         <v>7.0498000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.15</v>
       </c>
@@ -1845,7 +1908,7 @@
         <v>10.569599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.2</v>
       </c>
@@ -1877,7 +1940,7 @@
         <v>14.083</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.3</v>
       </c>
@@ -1909,7 +1972,7 @@
         <v>21.078700000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.4</v>
       </c>
@@ -1941,7 +2004,7 @@
         <v>28.007400000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -1973,7 +2036,7 @@
         <v>34.828899999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.6</v>
       </c>
@@ -2005,7 +2068,7 @@
         <v>41.493099999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.7</v>
       </c>
@@ -2037,7 +2100,7 @@
         <v>47.942999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.8</v>
       </c>
@@ -2069,7 +2132,7 @@
         <v>54.119199999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -2102,6 +2165,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2114,7 +2178,7 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
@@ -2126,7 +2190,7 @@
     <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2158,7 +2222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.05</v>
       </c>
@@ -2190,7 +2254,7 @@
         <v>19.459099999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.1</v>
       </c>
@@ -2222,7 +2286,7 @@
         <v>20.9682</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.15</v>
       </c>
@@ -2254,7 +2318,7 @@
         <v>23.004200000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.2</v>
       </c>
@@ -2286,7 +2350,7 @@
         <v>25.3794</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.3</v>
       </c>
@@ -2318,7 +2382,7 @@
         <v>30.602699999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.4</v>
       </c>
@@ -2350,7 +2414,7 @@
         <v>36.048499999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.5</v>
       </c>
@@ -2382,7 +2446,7 @@
         <v>41.494300000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.6</v>
       </c>
@@ -2414,7 +2478,7 @@
         <v>46.818899999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.7</v>
       </c>
@@ -2446,7 +2510,7 @@
         <v>51.936100000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.8</v>
       </c>
@@ -2478,7 +2542,7 @@
         <v>56.777200000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -2511,6 +2575,131 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF141E37-F8F7-437E-AD8B-F056F899C832}">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.217</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1.4E-3</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.217</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2E-3</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>